--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 NI Test Data\Weekly Inputsheets\Weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="4"/>
+    <workbookView activeTab="4" windowHeight="2985" windowWidth="9135" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
-    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
+    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="74">
   <si>
     <t>TC</t>
   </si>
@@ -251,6 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,46 +321,46 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -376,10 +377,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -414,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +572,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -580,13 +581,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -596,7 +597,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -605,7 +606,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -614,7 +615,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -624,12 +625,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -660,7 +661,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -679,7 +680,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -691,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -700,10 +701,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -734,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -788,13 +789,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -803,12 +804,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -852,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="30" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -888,13 +889,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -903,13 +904,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -935,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -953,7 +954,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -971,7 +972,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -989,7 +990,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>56</v>
       </c>
@@ -1007,7 +1008,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
@@ -1025,7 +1026,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
@@ -1043,7 +1044,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -1061,7 +1062,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>63</v>
       </c>
@@ -1096,16 +1097,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1114,17 +1115,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="59.25" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="46.5" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="44.25" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="46.5" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.25" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1482,17 +1483,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A9" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId3" ref="A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId4" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
@@ -1501,18 +1502,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -1596,8 +1597,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 NI Test Data\Weekly Inputsheets\Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" windowHeight="2985" windowWidth="9135" xWindow="0" yWindow="2370"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
-    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
+    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
   <si>
     <t>TC</t>
   </si>
@@ -251,7 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,46 +320,46 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,10 +376,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -415,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +571,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -581,13 +580,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -597,7 +596,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -606,7 +605,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -615,7 +614,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -625,12 +624,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -661,7 +660,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -680,7 +679,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -692,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -701,10 +700,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -735,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -789,13 +788,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -804,12 +803,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -853,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="30" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -889,28 +888,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row customFormat="1" r="3" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row customFormat="1" r="4" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>56</v>
       </c>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row customFormat="1" r="6" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row customFormat="1" r="7" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row customFormat="1" r="8" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row customFormat="1" r="9" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>63</v>
       </c>
@@ -1097,16 +1097,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
+    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1115,17 +1115,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="59.25" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="46.5" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="48.75" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="44.25" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="46.5" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.75" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="57" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.25" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1483,37 +1483,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A9"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId3" ref="A10"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A9" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId4" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -1597,8 +1597,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
   <si>
     <t>TC</t>
   </si>
@@ -245,6 +245,30 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 444</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 445</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 606</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 500</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 501</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 502</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 503</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 504</t>
   </si>
 </sst>
 </file>
@@ -898,7 +922,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +933,7 @@
     <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -952,11 +976,14 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -970,11 +997,14 @@
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -988,11 +1018,14 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H4" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -1006,11 +1039,14 @@
       <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
@@ -1024,11 +1060,14 @@
       <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H6" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
@@ -1042,11 +1081,14 @@
       <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H7" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
@@ -1060,11 +1102,14 @@
       <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H8" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -1078,10 +1123,13 @@
       <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H9" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
@@ -1094,6 +1142,9 @@
       </c>
       <c r="E10" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="2985" windowWidth="9135" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
-    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
+    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="82">
   <si>
     <t>TC</t>
   </si>
@@ -275,6 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,46 +345,46 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -400,10 +401,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -438,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +491,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +596,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -604,13 +605,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -620,7 +621,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -629,7 +630,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -638,7 +639,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -648,12 +649,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -684,7 +685,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -703,7 +704,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -715,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -724,10 +725,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -758,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -812,13 +813,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -827,12 +828,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -876,7 +877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="30" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -912,13 +913,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -927,14 +928,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -960,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -981,7 +982,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>74</v>
       </c>
@@ -1002,7 +1003,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>77</v>
       </c>
@@ -1044,7 +1045,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>78</v>
       </c>
@@ -1065,7 +1066,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>79</v>
       </c>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>80</v>
       </c>
@@ -1107,7 +1108,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>81</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
@@ -1148,16 +1149,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1166,17 +1167,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="59.25" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="46.5" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="44.25" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="46.5" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.25" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1534,17 +1535,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A9" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId3" ref="A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId4" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1553,18 +1554,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -1648,8 +1649,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="74">
   <si>
     <t>TC</t>
   </si>
@@ -245,30 +245,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 444</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 445</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 606</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 500</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 501</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 502</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 503</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 504</t>
   </si>
 </sst>
 </file>
@@ -348,7 +324,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -376,6 +352,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,12 +906,12 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
@@ -939,214 +922,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row customFormat="1" r="2" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2"/>
       <c r="I2" s="6"/>
     </row>
     <row customFormat="1" r="3" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3"/>
       <c r="I3" s="6"/>
     </row>
     <row customFormat="1" r="4" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4"/>
       <c r="I4" s="6"/>
     </row>
     <row customFormat="1" r="5" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5"/>
       <c r="I5" s="6"/>
     </row>
     <row customFormat="1" r="6" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6"/>
       <c r="I6" s="6"/>
     </row>
     <row customFormat="1" r="7" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7"/>
       <c r="I7" s="6"/>
     </row>
     <row customFormat="1" r="8" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8"/>
       <c r="I8" s="6"/>
     </row>
     <row customFormat="1" r="9" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9"/>
     </row>
     <row customFormat="1" r="10" s="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="D10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1161,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="2985" windowWidth="9135" xWindow="0" yWindow="2370"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
-    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
+    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
   <si>
     <t>TC</t>
   </si>
@@ -109,9 +109,6 @@
     <t>FirstReportNameInApplication</t>
   </si>
   <si>
-    <t>TestResultExcelFilePath</t>
-  </si>
-  <si>
     <t>worksheetNo</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>61,360.00</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>4</t>
@@ -251,7 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,53 +314,53 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -384,10 +377,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,7 +572,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -588,13 +581,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -604,7 +597,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -613,7 +606,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -622,7 +615,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -632,12 +625,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -668,7 +661,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -687,7 +680,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -699,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -708,10 +701,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -742,12 +735,12 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -796,13 +789,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -811,12 +804,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,31 +817,31 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -860,65 +853,65 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="30" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,15 +937,15 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>15</v>
@@ -965,15 +958,15 @@
       <c r="H2"/>
       <c r="I2" s="6"/>
     </row>
-    <row customFormat="1" r="3" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>15</v>
@@ -986,15 +979,15 @@
       <c r="H3"/>
       <c r="I3" s="6"/>
     </row>
-    <row customFormat="1" r="4" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>15</v>
@@ -1007,15 +1000,15 @@
       <c r="H4"/>
       <c r="I4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>15</v>
@@ -1028,15 +1021,15 @@
       <c r="H5"/>
       <c r="I5" s="6"/>
     </row>
-    <row customFormat="1" r="6" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>15</v>
@@ -1049,15 +1042,15 @@
       <c r="H6"/>
       <c r="I6" s="6"/>
     </row>
-    <row customFormat="1" r="7" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>15</v>
@@ -1070,15 +1063,15 @@
       <c r="H7"/>
       <c r="I7" s="6"/>
     </row>
-    <row customFormat="1" r="8" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>15</v>
@@ -1091,15 +1084,15 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
     </row>
-    <row customFormat="1" r="9" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>15</v>
@@ -1111,15 +1104,15 @@
       <c r="G9" s="12"/>
       <c r="H9"/>
     </row>
-    <row customFormat="1" r="10" s="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>15</v>
@@ -1132,35 +1125,34 @@
       <c r="H10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
+    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1189,366 +1181,335 @@
         <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="59.25" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="J9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="46.5" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="48.75" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="44.25" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="46.5" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="42.75" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="57" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="62.25" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A9"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId3" ref="A10"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A9" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId4" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1576,64 +1537,58 @@
       <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="4"/>
+    <workbookView activeTab="4" windowHeight="2985" windowWidth="9135" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
-    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
+    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="72">
   <si>
     <t>TC</t>
   </si>
@@ -245,6 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,53 +315,53 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -415,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +573,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -581,13 +582,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -597,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -606,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -615,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -625,12 +626,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -661,7 +662,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -680,7 +681,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -692,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -701,10 +702,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -735,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -789,13 +790,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -804,12 +805,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -853,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="30" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
@@ -889,13 +890,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -904,14 +905,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -958,7 +959,7 @@
       <c r="H2"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
@@ -979,7 +980,7 @@
       <c r="H3"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>54</v>
       </c>
@@ -1000,7 +1001,7 @@
       <c r="H4"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
@@ -1021,7 +1022,7 @@
       <c r="H5"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>56</v>
       </c>
@@ -1042,7 +1043,7 @@
       <c r="H6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
@@ -1063,7 +1064,7 @@
       <c r="H7"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -1084,7 +1085,7 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>61</v>
       </c>
@@ -1104,7 +1105,7 @@
       <c r="G9" s="12"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -1125,16 +1126,16 @@
       <c r="H10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1143,16 +1144,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="59.25" r="2" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="46.5" r="3" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="4" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="44.25" r="5" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="46.5" r="6" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>59</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="7" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>59</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="8" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="9" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>59</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.25" r="10" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>59</v>
       </c>
@@ -1480,17 +1481,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A9" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId3" ref="A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId4" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
@@ -1499,17 +1500,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
@@ -1587,8 +1588,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>